--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1645.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1645.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.014953372745779</v>
+        <v>2.155477046966553</v>
       </c>
       <c r="B1">
-        <v>3.279486742403916</v>
+        <v>3.395013093948364</v>
       </c>
       <c r="C1">
-        <v>3.348021074331947</v>
+        <v>3.10836124420166</v>
       </c>
       <c r="D1">
-        <v>2.374624424842547</v>
+        <v>3.529304504394531</v>
       </c>
       <c r="E1">
-        <v>1.237464065251146</v>
+        <v>1.562574028968811</v>
       </c>
     </row>
   </sheetData>
